--- a/ex05.xlsx
+++ b/ex05.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\CSE\CSMC\ex05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD12EE0D-30B0-44AF-BDF9-FF2C26C187BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA7FEA6-1F19-44CF-9D05-6CCFF0D81CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="18915" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4275" yWindow="19140" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>N</t>
   </si>
@@ -37,6 +46,30 @@
   </si>
   <si>
     <t xml:space="preserve"> time_dotp8</t>
+  </si>
+  <si>
+    <t>custom k=8</t>
+  </si>
+  <si>
+    <t>cublas k=8</t>
+  </si>
+  <si>
+    <t>cublas k=16</t>
+  </si>
+  <si>
+    <t>custom k=16</t>
+  </si>
+  <si>
+    <t>cublas k=24</t>
+  </si>
+  <si>
+    <t>custom k=24</t>
+  </si>
+  <si>
+    <t>cublas k=32</t>
+  </si>
+  <si>
+    <t>custom k=32</t>
   </si>
 </sst>
 </file>
@@ -116,20 +149,242 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15397003499562556"/>
+          <c:y val="7.4490740740740746E-2"/>
+          <c:w val="0.78099518810148716"/>
+          <c:h val="0.77326743812201071"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="4"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$3</c:f>
+              <c:f>Tabelle1!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> time_cublas</c:v>
+                  <c:v>cublas k=8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$H$4:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$4:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.5899999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7899999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0699999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8200000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.76E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0059999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2800000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2390000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7090000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-BC6B-4CEF-B4D3-2F101F791841}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>custom k=8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$H$4:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$J$4:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.63E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6600000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6899999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6299999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.23E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1700000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0049999999999998E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-BC6B-4CEF-B4D3-2F101F791841}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$I$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cublas k=16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -137,8 +392,12 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -148,10 +407,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$4:$B$10</c:f>
+              <c:f>Tabelle1!$H$4:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -172,36 +431,48 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$4:$C$10</c:f>
+              <c:f>Tabelle1!$I$15:$I$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4.75E-4</c:v>
+                  <c:v>8.9599999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9600000000000002E-4</c:v>
+                  <c:v>8.7699999999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.13E-4</c:v>
+                  <c:v>1.011E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3699999999999998E-4</c:v>
+                  <c:v>1.134E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.4000000000000003E-4</c:v>
+                  <c:v>1.5529999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.77E-4</c:v>
+                  <c:v>1.163E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.2400000000000005E-4</c:v>
+                  <c:v>1.0380000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4610000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4640000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -209,20 +480,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D53B-419C-A473-AC87714FE568}"/>
+              <c16:uniqueId val="{00000013-BC6B-4CEF-B4D3-2F101F791841}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="7"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$D$3</c:f>
+              <c:f>Tabelle1!$J$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> time_dotp8</c:v>
+                  <c:v>custom k=16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -230,8 +501,12 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -241,10 +516,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$4:$B$10</c:f>
+              <c:f>Tabelle1!$H$4:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -265,36 +540,48 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$D$4:$D$10</c:f>
+              <c:f>Tabelle1!$J$15:$J$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.6400000000000002E-4</c:v>
+                  <c:v>5.1999999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6699999999999998E-4</c:v>
+                  <c:v>5.2400000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7099999999999997E-4</c:v>
+                  <c:v>5.2899999999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7999999999999998E-4</c:v>
+                  <c:v>5.5599999999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3799999999999998E-4</c:v>
+                  <c:v>6.7299999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5800000000000002E-4</c:v>
+                  <c:v>4.75E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.24E-4</c:v>
+                  <c:v>4.4200000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2310000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.993E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -302,7 +589,433 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D53B-419C-A473-AC87714FE568}"/>
+              <c16:uniqueId val="{00000014-BC6B-4CEF-B4D3-2F101F791841}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$I$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cublas k=24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$H$4:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$26:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.3240000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3320000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.524E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7099999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3830000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8900000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.575E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.741E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1213000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-BC6B-4CEF-B4D3-2F101F791841}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$J$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>custom k=24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$H$4:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$J$26:$J$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7.6999999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.76E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8700000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.25E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9400000000000009E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.63E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.843E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.9639999999999997E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-BC6B-4CEF-B4D3-2F101F791841}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$I$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cublas k=32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$H$4:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$37:$I$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.8109999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.786E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0119999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2720000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.766E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1490000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0839999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9420000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4864E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-BC6B-4CEF-B4D3-2F101F791841}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$J$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>custom k=32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$H$4:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$J$37:$J$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.0269999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0300000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.044E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0970000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9099999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4600000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.7200000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4520000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.9640000000000006E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-BC6B-4CEF-B4D3-2F101F791841}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -314,14 +1027,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="86556319"/>
-        <c:axId val="86561311"/>
+        <c:axId val="1827448847"/>
+        <c:axId val="1827457999"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86556319"/>
+        <c:axId val="1827448847"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -339,7 +1053,50 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>vector size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47675762857887038"/>
+              <c:y val="0.90147976400909069"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -376,14 +1133,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86561311"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="1827457999"/>
+        <c:crossesAt val="1.0000000000000003E-4"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86561311"/>
+        <c:axId val="1827457999"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -401,7 +1160,42 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>execution time in s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -438,20 +1232,23 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86556319"/>
+        <c:crossAx val="1827448847"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15915506113337255"/>
+          <c:y val="0.12283025153685716"/>
+          <c:w val="0.77287652020596664"/>
+          <c:h val="0.13475540047290008"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -465,7 +1262,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -483,30 +1280,9 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -525,583 +1301,2521 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15397003499562556"/>
+          <c:y val="7.4490740740740746E-2"/>
+          <c:w val="0.78099518810148716"/>
+          <c:h val="0.77326743812201071"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$J$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>custom k=32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$H$4:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$J$37:$J$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.0269999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0300000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.044E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0970000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9099999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4600000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.7200000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4520000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.9640000000000006E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-B84C-45F3-B352-1FA93C6C7337}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$J$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>custom k=24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$H$4:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$J$26:$J$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7.6999999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.76E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8700000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.25E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9400000000000009E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.63E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.843E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.9639999999999997E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B84C-45F3-B352-1FA93C6C7337}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$J$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>custom k=16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$H$4:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$J$15:$J$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.1999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2400000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2899999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5599999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7299999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.75E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4200000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2310000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.993E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B84C-45F3-B352-1FA93C6C7337}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>custom k=8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$H$4:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$J$4:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.63E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6600000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6899999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6299999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.23E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1700000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0049999999999998E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B84C-45F3-B352-1FA93C6C7337}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1827448847"/>
+        <c:axId val="1827457999"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$I$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>cublas k=8</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="40000"/>
+                        <a:lumOff val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:ln>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$H$4:$H$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>30000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>300000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>3000000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>10000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$I$4:$I$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>4.5899999999999999E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4.7899999999999999E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.0699999999999996E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5.8200000000000005E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7.76E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.0059999999999999E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5.2800000000000004E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.2390000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>3.7090000000000001E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-B84C-45F3-B352-1FA93C6C7337}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$I$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>cublas k=16</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                        <a:lumOff val="40000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:prstDash val="dash"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$H$4:$H$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>30000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>300000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>3000000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>10000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$I$15:$I$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>8.9599999999999999E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8.7699999999999996E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.011E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.134E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.5529999999999999E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.163E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.0380000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2.4610000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>7.4640000000000001E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-B84C-45F3-B352-1FA93C6C7337}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$I$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>cublas k=24</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:ln>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$H$4:$H$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>30000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>300000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>3000000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>10000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$I$26:$I$34</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>1.3240000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.3320000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.524E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.7099999999999999E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.3830000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8.8900000000000003E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.575E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>3.741E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.1213000000000001E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-B84C-45F3-B352-1FA93C6C7337}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$I$36</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>cublas k=32</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:prstDash val="dash"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$H$4:$H$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>30000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>300000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>3000000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>10000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$I$37:$I$45</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>1.8109999999999999E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.786E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.0119999999999999E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.2720000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.766E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.1490000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2.0839999999999999E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>4.9420000000000002E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.4864E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-B84C-45F3-B352-1FA93C6C7337}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1827448847"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>vector size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47675762857887038"/>
+              <c:y val="0.90147976400909069"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1827457999"/>
+        <c:crossesAt val="1.0000000000000003E-4"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1827457999"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>execution time in s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1827448847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15915506113337255"/>
+          <c:y val="0.12283025153685716"/>
+          <c:w val="0.24381371367724941"/>
+          <c:h val="0.26408557422473394"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15397003499562556"/>
+          <c:y val="7.4490740740740746E-2"/>
+          <c:w val="0.78099518810148716"/>
+          <c:h val="0.77326743812201071"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$I$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cublas k=32</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$H$4:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$37:$I$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.8109999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.786E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0119999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2720000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.766E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1490000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0839999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9420000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4864E-2</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-5003-4768-BEBD-BEC89E075FBD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$J$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>custom k=32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$H$4:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$J$37:$J$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.0269999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0300000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.044E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0970000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9099999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4600000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.7200000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4520000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.9640000000000006E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5003-4768-BEBD-BEC89E075FBD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cublas k=8</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$H$4:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$4:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.5899999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7899999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0699999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8200000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.76E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0059999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2800000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2390000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7090000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5003-4768-BEBD-BEC89E075FBD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>custom k=8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$H$4:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$J$4:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.63E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6600000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6899999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6299999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.23E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1700000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0049999999999998E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5003-4768-BEBD-BEC89E075FBD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1827448847"/>
+        <c:axId val="1827457999"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$J$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>custom k=24</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:prstDash val="dash"/>
+                  </a:ln>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$H$4:$H$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>30000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>300000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>3000000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>10000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$J$26:$J$34</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>7.6999999999999996E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7.76E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.8700000000000005E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8.25E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>9.9400000000000009E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2.63E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.6E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.843E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>5.9639999999999997E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-5003-4768-BEBD-BEC89E075FBD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$J$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>custom k=16</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:prstDash val="sysDash"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$H$4:$H$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>30000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>300000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>3000000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>10000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$J$15:$J$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>5.1999999999999995E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5.2400000000000005E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.2899999999999996E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5.5599999999999996E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6.7299999999999999E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.75E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4.4200000000000001E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.2310000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>3.993E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-5003-4768-BEBD-BEC89E075FBD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$I$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>cublas k=16</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                        <a:lumOff val="40000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:prstDash val="dash"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$H$4:$H$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>30000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>300000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>3000000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>10000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$I$15:$I$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>8.9599999999999999E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8.7699999999999996E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.011E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.134E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.5529999999999999E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.163E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.0380000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2.4610000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>7.4640000000000001E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-5003-4768-BEBD-BEC89E075FBD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$I$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>cublas k=24</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:ln>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$H$4:$H$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>30000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>300000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>3000000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>10000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$I$26:$I$34</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>1.3240000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.3320000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.524E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.7099999999999999E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.3830000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8.8900000000000003E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.575E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>3.741E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.1213000000000001E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-5003-4768-BEBD-BEC89E075FBD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1827448847"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>vector size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47675762857887038"/>
+              <c:y val="0.90147976400909069"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1827457999"/>
+        <c:crossesAt val="1.0000000000000003E-4"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1827457999"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>execution time in s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1827448847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15915506113337255"/>
+          <c:y val="0.12283025153685716"/>
+          <c:w val="0.24381371367724941"/>
+          <c:h val="0.26408557422473394"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
         <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54FC48F8-1F24-44F4-BC10-D1FF1D2DB2B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF9F323F-49A0-4502-BE10-F2ED7620BAAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1114,6 +3828,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE5E582F-8F7C-45C0-9957-01155962C234}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BDCA5FB-92FA-4F28-8875-023B83C4EF5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1385,15 +4175,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:D37"/>
+  <dimension ref="A3:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1406,8 +4196,20 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>8</v>
       </c>
@@ -1420,8 +4222,24 @@
       <c r="D4" s="2">
         <v>2.6400000000000002E-4</v>
       </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="2">
+        <v>4.5899999999999999E-4</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2.63E-4</v>
+      </c>
+      <c r="K4" s="2">
+        <f>I4/J4</f>
+        <v>1.7452471482889733</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>8</v>
       </c>
@@ -1434,8 +4252,24 @@
       <c r="D5" s="2">
         <v>2.6699999999999998E-4</v>
       </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I5" s="2">
+        <v>4.7899999999999999E-4</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2.6600000000000001E-4</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" ref="K5:K12" si="0">I5/J5</f>
+        <v>1.8007518796992479</v>
+      </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>8</v>
       </c>
@@ -1448,8 +4282,24 @@
       <c r="D6" s="2">
         <v>2.7099999999999997E-4</v>
       </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5.0699999999999996E-4</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2.6899999999999998E-4</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8847583643122676</v>
+      </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>8</v>
       </c>
@@ -1462,8 +4312,24 @@
       <c r="D7" s="2">
         <v>2.7999999999999998E-4</v>
       </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1">
+        <v>30000</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5.8200000000000005E-4</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0785714285714287</v>
+      </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1476,8 +4342,24 @@
       <c r="D8" s="2">
         <v>3.3799999999999998E-4</v>
       </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1">
+        <v>100000</v>
+      </c>
+      <c r="I8" s="2">
+        <v>7.76E-4</v>
+      </c>
+      <c r="J8" s="2">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2823529411764705</v>
+      </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1490,8 +4372,24 @@
       <c r="D9" s="2">
         <v>4.5800000000000002E-4</v>
       </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1">
+        <v>300000</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1.0059999999999999E-3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>4.6299999999999998E-4</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1727861771058317</v>
+      </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1504,8 +4402,42 @@
       <c r="D10" s="2">
         <v>2.24E-4</v>
       </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5.2800000000000004E-4</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2.23E-4</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3677130044843051</v>
+      </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="11" spans="1:11">
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1.2390000000000001E-3</v>
+      </c>
+      <c r="J11" s="2">
+        <v>6.1700000000000004E-4</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0081037277147487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1518,8 +4450,24 @@
       <c r="D12" t="s">
         <v>3</v>
       </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="I12" s="2">
+        <v>3.7090000000000001E-3</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2.0049999999999998E-3</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8498753117206985</v>
+      </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>16</v>
       </c>
@@ -1533,7 +4481,7 @@
         <v>5.1500000000000005E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>16</v>
       </c>
@@ -1546,8 +4494,20 @@
       <c r="D14" s="2">
         <v>5.1699999999999999E-4</v>
       </c>
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>16</v>
       </c>
@@ -1560,8 +4520,24 @@
       <c r="D15" s="2">
         <v>5.2700000000000002E-4</v>
       </c>
+      <c r="G15">
+        <v>16</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I15" s="2">
+        <v>8.9599999999999999E-4</v>
+      </c>
+      <c r="J15" s="2">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="K15" s="2">
+        <f>I15/J15</f>
+        <v>1.7230769230769232</v>
+      </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>16</v>
       </c>
@@ -1574,8 +4550,24 @@
       <c r="D16" s="2">
         <v>5.5099999999999995E-4</v>
       </c>
+      <c r="G16">
+        <v>16</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I16" s="2">
+        <v>8.7699999999999996E-4</v>
+      </c>
+      <c r="J16" s="2">
+        <v>5.2400000000000005E-4</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" ref="K16:K23" si="1">I16/J16</f>
+        <v>1.6736641221374042</v>
+      </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1588,8 +4580,24 @@
       <c r="D17" s="2">
         <v>6.6600000000000003E-4</v>
       </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
+      <c r="H17" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1.011E-3</v>
+      </c>
+      <c r="J17" s="2">
+        <v>5.2899999999999996E-4</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9111531190926276</v>
+      </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1602,8 +4610,24 @@
       <c r="D18" s="2">
         <v>3.3500000000000001E-4</v>
       </c>
+      <c r="G18">
+        <v>16</v>
+      </c>
+      <c r="H18" s="1">
+        <v>30000</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1.134E-3</v>
+      </c>
+      <c r="J18" s="2">
+        <v>5.5599999999999996E-4</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0395683453237412</v>
+      </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1616,8 +4640,42 @@
       <c r="D19" s="2">
         <v>4.4200000000000001E-4</v>
       </c>
+      <c r="G19">
+        <v>16</v>
+      </c>
+      <c r="H19" s="1">
+        <v>100000</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1.5529999999999999E-3</v>
+      </c>
+      <c r="J19" s="2">
+        <v>6.7299999999999999E-4</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3075780089153044</v>
+      </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="20" spans="1:11">
+      <c r="G20">
+        <v>16</v>
+      </c>
+      <c r="H20" s="1">
+        <v>300000</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1.163E-3</v>
+      </c>
+      <c r="J20" s="2">
+        <v>4.75E-4</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="1"/>
+        <v>2.4484210526315788</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -1630,8 +4688,24 @@
       <c r="D21" t="s">
         <v>3</v>
       </c>
+      <c r="G21">
+        <v>16</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1.0380000000000001E-3</v>
+      </c>
+      <c r="J21" s="2">
+        <v>4.4200000000000001E-4</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3484162895927603</v>
+      </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>24</v>
       </c>
@@ -1644,8 +4718,24 @@
       <c r="D22" s="2">
         <v>7.7300000000000003E-4</v>
       </c>
+      <c r="G22">
+        <v>16</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="I22" s="2">
+        <v>2.4610000000000001E-3</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1.2310000000000001E-3</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9991876523151908</v>
+      </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>24</v>
       </c>
@@ -1658,8 +4748,24 @@
       <c r="D23" s="2">
         <v>7.7399999999999995E-4</v>
       </c>
+      <c r="G23">
+        <v>16</v>
+      </c>
+      <c r="H23" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="I23" s="2">
+        <v>7.4640000000000001E-3</v>
+      </c>
+      <c r="J23" s="2">
+        <v>3.993E-3</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8692712246431256</v>
+      </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>24</v>
       </c>
@@ -1673,7 +4779,7 @@
         <v>7.8799999999999996E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1686,8 +4792,20 @@
       <c r="D25" s="2">
         <v>8.2299999999999995E-4</v>
       </c>
+      <c r="G25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1700,8 +4818,24 @@
       <c r="D26" s="2">
         <v>5.2099999999999998E-4</v>
       </c>
+      <c r="G26">
+        <v>24</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1.3240000000000001E-3</v>
+      </c>
+      <c r="J26" s="2">
+        <v>7.6999999999999996E-4</v>
+      </c>
+      <c r="K26" s="2">
+        <f>I26/J26</f>
+        <v>1.7194805194805196</v>
+      </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1714,8 +4848,24 @@
       <c r="D27" s="2">
         <v>2.61E-4</v>
       </c>
+      <c r="G27">
+        <v>24</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1.3320000000000001E-3</v>
+      </c>
+      <c r="J27" s="2">
+        <v>7.76E-4</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" ref="K27:K34" si="2">I27/J27</f>
+        <v>1.7164948453608249</v>
+      </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>24</v>
       </c>
@@ -1728,8 +4878,42 @@
       <c r="D28" s="2">
         <v>6.6E-4</v>
       </c>
+      <c r="G28">
+        <v>24</v>
+      </c>
+      <c r="H28" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1.524E-3</v>
+      </c>
+      <c r="J28" s="2">
+        <v>7.8700000000000005E-4</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9364675984752222</v>
+      </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="29" spans="1:11">
+      <c r="G29">
+        <v>24</v>
+      </c>
+      <c r="H29" s="1">
+        <v>30000</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1.7099999999999999E-3</v>
+      </c>
+      <c r="J29" s="2">
+        <v>8.25E-4</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0727272727272728</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -1742,8 +4926,24 @@
       <c r="D30" t="s">
         <v>3</v>
       </c>
+      <c r="G30">
+        <v>24</v>
+      </c>
+      <c r="H30" s="1">
+        <v>100000</v>
+      </c>
+      <c r="I30" s="2">
+        <v>2.3830000000000001E-3</v>
+      </c>
+      <c r="J30" s="2">
+        <v>9.9400000000000009E-4</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" si="2"/>
+        <v>2.3973843058350099</v>
+      </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>32</v>
       </c>
@@ -1756,8 +4956,24 @@
       <c r="D31" s="2">
         <v>1.0219999999999999E-3</v>
       </c>
+      <c r="G31">
+        <v>24</v>
+      </c>
+      <c r="H31" s="1">
+        <v>300000</v>
+      </c>
+      <c r="I31" s="2">
+        <v>8.8900000000000003E-4</v>
+      </c>
+      <c r="J31" s="2">
+        <v>2.63E-4</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3802281368821294</v>
+      </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>32</v>
       </c>
@@ -1770,8 +4986,24 @@
       <c r="D32" s="2">
         <v>1.029E-3</v>
       </c>
+      <c r="G32">
+        <v>24</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1.575E-3</v>
+      </c>
+      <c r="J32" s="2">
+        <v>6.6E-4</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" si="2"/>
+        <v>2.3863636363636362</v>
+      </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1784,8 +5016,24 @@
       <c r="D33" s="2">
         <v>1.047E-3</v>
       </c>
+      <c r="G33">
+        <v>24</v>
+      </c>
+      <c r="H33" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="I33" s="2">
+        <v>3.741E-3</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1.843E-3</v>
+      </c>
+      <c r="K33" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0298426478567553</v>
+      </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1798,8 +5046,24 @@
       <c r="D34" s="2">
         <v>1.0970000000000001E-3</v>
       </c>
+      <c r="G34">
+        <v>24</v>
+      </c>
+      <c r="H34" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1.1213000000000001E-2</v>
+      </c>
+      <c r="J34" s="2">
+        <v>5.9639999999999997E-3</v>
+      </c>
+      <c r="K34" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8801140174379614</v>
+      </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>32</v>
       </c>
@@ -1813,7 +5077,7 @@
         <v>6.8999999999999997E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>32</v>
       </c>
@@ -1826,8 +5090,20 @@
       <c r="D36" s="2">
         <v>3.48E-4</v>
       </c>
+      <c r="G36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>32</v>
       </c>
@@ -1839,6 +5115,166 @@
       </c>
       <c r="D37" s="2">
         <v>8.7900000000000001E-4</v>
+      </c>
+      <c r="G37">
+        <v>32</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1.8109999999999999E-3</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1.0269999999999999E-3</v>
+      </c>
+      <c r="K37" s="2">
+        <f>I37/J37</f>
+        <v>1.7633885102239533</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="G38">
+        <v>32</v>
+      </c>
+      <c r="H38" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1.786E-3</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1.0300000000000001E-3</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" ref="K38:K45" si="3">I38/J38</f>
+        <v>1.7339805825242718</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="G39">
+        <v>32</v>
+      </c>
+      <c r="H39" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I39" s="2">
+        <v>2.0119999999999999E-3</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1.044E-3</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="3"/>
+        <v>1.9272030651340994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="G40">
+        <v>32</v>
+      </c>
+      <c r="H40" s="1">
+        <v>30000</v>
+      </c>
+      <c r="I40" s="2">
+        <v>2.2720000000000001E-3</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1.0970000000000001E-3</v>
+      </c>
+      <c r="K40" s="2">
+        <f t="shared" si="3"/>
+        <v>2.0711030082041932</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="G41">
+        <v>32</v>
+      </c>
+      <c r="H41" s="1">
+        <v>100000</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1.766E-3</v>
+      </c>
+      <c r="J41" s="2">
+        <v>6.9099999999999999E-4</v>
+      </c>
+      <c r="K41" s="2">
+        <f t="shared" si="3"/>
+        <v>2.5557163531114329</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="G42">
+        <v>32</v>
+      </c>
+      <c r="H42" s="1">
+        <v>300000</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1.1490000000000001E-3</v>
+      </c>
+      <c r="J42" s="2">
+        <v>3.4600000000000001E-4</v>
+      </c>
+      <c r="K42" s="2">
+        <f t="shared" si="3"/>
+        <v>3.3208092485549132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="G43">
+        <v>32</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="I43" s="2">
+        <v>2.0839999999999999E-3</v>
+      </c>
+      <c r="J43" s="2">
+        <v>8.7200000000000005E-4</v>
+      </c>
+      <c r="K43" s="2">
+        <f t="shared" si="3"/>
+        <v>2.3899082568807337</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="G44">
+        <v>32</v>
+      </c>
+      <c r="H44" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="I44" s="2">
+        <v>4.9420000000000002E-3</v>
+      </c>
+      <c r="J44" s="2">
+        <v>2.4520000000000002E-3</v>
+      </c>
+      <c r="K44" s="2">
+        <f t="shared" si="3"/>
+        <v>2.0154975530179446</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="G45">
+        <v>32</v>
+      </c>
+      <c r="H45" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="I45" s="2">
+        <v>1.4864E-2</v>
+      </c>
+      <c r="J45" s="2">
+        <v>7.9640000000000006E-3</v>
+      </c>
+      <c r="K45" s="2">
+        <f t="shared" si="3"/>
+        <v>1.86639879457559</v>
       </c>
     </row>
   </sheetData>

--- a/ex05.xlsx
+++ b/ex05.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\CSE\CSMC\ex05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA7FEA6-1F19-44CF-9D05-6CCFF0D81CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBA7E18-4D67-4DC2-9EE6-383714BD846B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="19140" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="P1" sheetId="1" r:id="rId1"/>
+    <sheet name="P2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>N</t>
   </si>
@@ -70,6 +71,60 @@
   </si>
   <si>
     <t>custom k=32</t>
+  </si>
+  <si>
+    <t>ppd</t>
+  </si>
+  <si>
+    <t>N_unknowns</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>pipelined</t>
+  </si>
+  <si>
+    <t>0.02194 (0.000467532 per iteration)</t>
+  </si>
+  <si>
+    <t>0.023167 (0.000494106 per iteration)</t>
+  </si>
+  <si>
+    <t>0.046154 (0.000491255 per iteration)</t>
+  </si>
+  <si>
+    <t>0.043654 (0.000464798 per iteration)</t>
+  </si>
+  <si>
+    <t>0.095537 (0.000502968 per iteration)</t>
+  </si>
+  <si>
+    <t>0.091164 (0.000479974 per iteration)</t>
+  </si>
+  <si>
+    <t>0.238176 (0.000620372 per iteration)</t>
+  </si>
+  <si>
+    <t>0.232374 (0.000605247 per iteration)</t>
+  </si>
+  <si>
+    <t>0.776221 (0.00100163 per iteration)</t>
+  </si>
+  <si>
+    <t>0.767084 (0.000989821 per iteration)</t>
+  </si>
+  <si>
+    <t>1.91527 (0.00122383 per iteration)</t>
+  </si>
+  <si>
+    <t>1.7684 (0.00112998 per iteration)</t>
+  </si>
+  <si>
+    <t>9.24658 (0.00292522 per iteration)</t>
+  </si>
+  <si>
+    <t>7.82304 (0.00247487 per iteration)</t>
   </si>
 </sst>
 </file>
@@ -168,7 +223,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$I$3</c:f>
+              <c:f>'P1'!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -192,7 +247,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$H$4:$H$12</c:f>
+              <c:f>'P1'!$H$4:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -228,7 +283,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$I$4:$I$12</c:f>
+              <c:f>'P1'!$I$4:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -274,7 +329,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$J$3</c:f>
+              <c:f>'P1'!$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -298,7 +353,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$H$4:$H$12</c:f>
+              <c:f>'P1'!$H$4:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -334,7 +389,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$J$4:$J$12</c:f>
+              <c:f>'P1'!$J$4:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -380,7 +435,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$I$14</c:f>
+              <c:f>'P1'!$I$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -407,7 +462,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$H$4:$H$12</c:f>
+              <c:f>'P1'!$H$4:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -443,7 +498,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$I$15:$I$23</c:f>
+              <c:f>'P1'!$I$15:$I$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -489,7 +544,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$J$14</c:f>
+              <c:f>'P1'!$J$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -516,7 +571,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$H$4:$H$12</c:f>
+              <c:f>'P1'!$H$4:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -552,7 +607,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$J$15:$J$23</c:f>
+              <c:f>'P1'!$J$15:$J$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -598,7 +653,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$I$25</c:f>
+              <c:f>'P1'!$I$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -621,7 +676,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$H$4:$H$12</c:f>
+              <c:f>'P1'!$H$4:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -657,7 +712,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$I$26:$I$34</c:f>
+              <c:f>'P1'!$I$26:$I$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -703,7 +758,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$J$25</c:f>
+              <c:f>'P1'!$J$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -726,7 +781,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$H$4:$H$12</c:f>
+              <c:f>'P1'!$H$4:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -762,7 +817,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$J$26:$J$34</c:f>
+              <c:f>'P1'!$J$26:$J$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -808,7 +863,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$I$36</c:f>
+              <c:f>'P1'!$I$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -834,7 +889,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$H$4:$H$12</c:f>
+              <c:f>'P1'!$H$4:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -870,7 +925,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$I$37:$I$45</c:f>
+              <c:f>'P1'!$I$37:$I$45</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -916,7 +971,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$J$36</c:f>
+              <c:f>'P1'!$J$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -942,7 +997,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$H$4:$H$12</c:f>
+              <c:f>'P1'!$H$4:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -978,7 +1033,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$J$37:$J$45</c:f>
+              <c:f>'P1'!$J$37:$J$45</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1336,7 +1391,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$J$36</c:f>
+              <c:f>'P1'!$J$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1360,7 +1415,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$H$4:$H$12</c:f>
+              <c:f>'P1'!$H$4:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1396,7 +1451,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$J$37:$J$45</c:f>
+              <c:f>'P1'!$J$37:$J$45</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1442,7 +1497,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$J$25</c:f>
+              <c:f>'P1'!$J$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1464,7 +1519,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$H$4:$H$12</c:f>
+              <c:f>'P1'!$H$4:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1500,7 +1555,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$J$26:$J$34</c:f>
+              <c:f>'P1'!$J$26:$J$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1546,7 +1601,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$J$14</c:f>
+              <c:f>'P1'!$J$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1570,7 +1625,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$H$4:$H$12</c:f>
+              <c:f>'P1'!$H$4:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1606,7 +1661,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$J$15:$J$23</c:f>
+              <c:f>'P1'!$J$15:$J$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1652,7 +1707,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$J$3</c:f>
+              <c:f>'P1'!$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1674,7 +1729,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$H$4:$H$12</c:f>
+              <c:f>'P1'!$H$4:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1710,7 +1765,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$J$4:$J$12</c:f>
+              <c:f>'P1'!$J$4:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1772,7 +1827,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$I$3</c15:sqref>
+                          <c15:sqref>'P1'!$I$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1802,7 +1857,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$H$4:$H$12</c15:sqref>
+                          <c15:sqref>'P1'!$H$4:$H$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1844,7 +1899,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$I$4:$I$12</c15:sqref>
+                          <c15:sqref>'P1'!$I$4:$I$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1895,10 +1950,10 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$I$14</c15:sqref>
+                          <c15:sqref>'P1'!$I$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1928,10 +1983,10 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$H$4:$H$12</c15:sqref>
+                          <c15:sqref>'P1'!$H$4:$H$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1970,10 +2025,10 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$I$15:$I$23</c15:sqref>
+                          <c15:sqref>'P1'!$I$15:$I$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2011,7 +2066,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-B84C-45F3-B352-1FA93C6C7337}"/>
                   </c:ext>
@@ -2024,10 +2079,10 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$I$25</c15:sqref>
+                          <c15:sqref>'P1'!$I$25</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2053,10 +2108,10 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$H$4:$H$12</c15:sqref>
+                          <c15:sqref>'P1'!$H$4:$H$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2095,10 +2150,10 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$I$26:$I$34</c15:sqref>
+                          <c15:sqref>'P1'!$I$26:$I$34</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2136,7 +2191,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-B84C-45F3-B352-1FA93C6C7337}"/>
                   </c:ext>
@@ -2149,10 +2204,10 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$I$36</c15:sqref>
+                          <c15:sqref>'P1'!$I$36</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2181,10 +2236,10 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$H$4:$H$12</c15:sqref>
+                          <c15:sqref>'P1'!$H$4:$H$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2223,10 +2278,10 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$I$37:$I$45</c15:sqref>
+                          <c15:sqref>'P1'!$I$37:$I$45</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2264,7 +2319,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-B84C-45F3-B352-1FA93C6C7337}"/>
                   </c:ext>
@@ -2580,7 +2635,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$I$36</c:f>
+              <c:f>'P1'!$I$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2607,7 +2662,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$H$4:$H$12</c:f>
+              <c:f>'P1'!$H$4:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2644,7 +2699,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$I$37:$I$45</c:f>
+              <c:f>'P1'!$I$37:$I$45</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2691,7 +2746,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$J$36</c:f>
+              <c:f>'P1'!$J$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2715,7 +2770,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$H$4:$H$12</c:f>
+              <c:f>'P1'!$H$4:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2751,7 +2806,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$J$37:$J$45</c:f>
+              <c:f>'P1'!$J$37:$J$45</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2797,7 +2852,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$I$3</c:f>
+              <c:f>'P1'!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2822,7 +2877,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$H$4:$H$12</c:f>
+              <c:f>'P1'!$H$4:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2859,7 +2914,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$I$4:$I$12</c:f>
+              <c:f>'P1'!$I$4:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2906,7 +2961,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$J$3</c:f>
+              <c:f>'P1'!$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2928,7 +2983,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$H$4:$H$12</c:f>
+              <c:f>'P1'!$H$4:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2964,7 +3019,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$J$4:$J$12</c:f>
+              <c:f>'P1'!$J$4:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3026,7 +3081,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$J$25</c15:sqref>
+                          <c15:sqref>'P1'!$J$25</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3054,7 +3109,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$H$4:$H$12</c15:sqref>
+                          <c15:sqref>'P1'!$H$4:$H$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3096,7 +3151,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$J$26:$J$34</c15:sqref>
+                          <c15:sqref>'P1'!$J$26:$J$34</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3147,10 +3202,10 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$J$14</c15:sqref>
+                          <c15:sqref>'P1'!$J$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3177,10 +3232,10 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$H$4:$H$12</c15:sqref>
+                          <c15:sqref>'P1'!$H$4:$H$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3219,10 +3274,10 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$J$15:$J$23</c15:sqref>
+                          <c15:sqref>'P1'!$J$15:$J$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3260,7 +3315,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-5003-4768-BEBD-BEC89E075FBD}"/>
                   </c:ext>
@@ -3276,7 +3331,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$I$14</c15:sqref>
+                          <c15:sqref>'P1'!$I$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3309,7 +3364,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$H$4:$H$12</c15:sqref>
+                          <c15:sqref>'P1'!$H$4:$H$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3351,7 +3406,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$I$15:$I$23</c15:sqref>
+                          <c15:sqref>'P1'!$I$15:$I$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3405,7 +3460,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$I$25</c15:sqref>
+                          <c15:sqref>'P1'!$I$25</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3434,7 +3489,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$H$4:$H$12</c15:sqref>
+                          <c15:sqref>'P1'!$H$4:$H$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3476,7 +3531,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$I$26:$I$34</c15:sqref>
+                          <c15:sqref>'P1'!$I$26:$I$34</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4177,7 +4232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
@@ -5282,4 +5337,148 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E478ACA1-BA2F-4304-91D5-2EF3ED49FCD7}">
+  <dimension ref="A3:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="51" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <f>A4^2</f>
+        <v>900</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <f>A4*2</f>
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B10" si="0">A5^2</f>
+        <v>3600</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <f t="shared" ref="A6:A20" si="1">A5*2</f>
+        <v>120</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>14400</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>57600</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>480</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>230400</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>960</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>921600</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>1920</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>3686400</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>